--- a/ImobiliariaRelap MR.xlsx
+++ b/ImobiliariaRelap MR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pingo\Documents\FATEC\Terceiro Semestre\Banco de Dados\Imobiliaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Imobiliaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCED585-DF4F-4881-9392-6E20333928E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFFF921-740F-4B82-802F-18C01CAD7A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="794" activeTab="8" xr2:uid="{05CA7559-6458-4853-BE40-2C1F9735CDFA}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
   <si>
     <t>Funcionários Administr.</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>Senha</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DB964A-29F4-4203-A398-5BDE8CAC5165}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1628,9 +1642,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945547F6-2DFC-4344-91BE-4056D7B78B65}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1641,7 +1657,7 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1660,8 +1676,14 @@
       <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1680,8 +1702,10 @@
       <c r="F2" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1700,8 +1724,10 @@
       <c r="F3" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1720,14 +1746,18 @@
       <c r="F4" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1809,9 +1839,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785207E0-3C30-407D-9B52-7F234471C3A1}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1819,10 +1851,10 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1841,8 +1873,20 @@
       <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1861,8 +1905,12 @@
       <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1881,8 +1929,12 @@
       <c r="F3" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1901,14 +1953,22 @@
       <c r="F4" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2167,9 +2227,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2296,7 +2358,7 @@
       <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2307,6 +2369,9 @@
       <c r="D12" s="26" t="s">
         <v>99</v>
       </c>
+      <c r="M12" s="26" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
@@ -2325,6 +2390,9 @@
       <c r="I13" s="18"/>
       <c r="K13" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2388,7 +2456,7 @@
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" s="18"/>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="18"/>
@@ -2397,8 +2465,26 @@
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="K20" s="13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="27" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
